--- a/whowherewhen/whowhenwhere_test_result_ekonomi_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_ekonomi_evaluated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F999DA-FE6C-49E5-8584-C68D4DD598C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E885218-0246-4272-8720-DCCAF1DBCCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19578,8 +19578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y135" sqref="Y135"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29904,7 +29904,7 @@
         <v>522</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="s">
         <v>151</v>
@@ -29981,7 +29981,7 @@
         <v>524</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -29993,13 +29993,13 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="s">
         <v>412</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -30008,7 +30008,7 @@
         <v>412</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -30026,7 +30026,7 @@
         <v>28</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R136">
         <v>0</v>
@@ -30044,7 +30044,7 @@
         <v>28</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X136">
         <v>0</v>
@@ -30058,7 +30058,7 @@
         <v>529</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -30067,7 +30067,7 @@
         <v>530</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -30076,7 +30076,7 @@
         <v>111</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -30085,7 +30085,7 @@
         <v>68</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137">
         <v>0</v>
@@ -30103,7 +30103,7 @@
         <v>28</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R137">
         <v>0</v>
@@ -30121,7 +30121,7 @@
         <v>28</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X137">
         <v>0</v>
@@ -30135,7 +30135,7 @@
         <v>534</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>142</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>151</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>151</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>28</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>28</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X138">
         <v>0</v>
@@ -30212,7 +30212,7 @@
         <v>536</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -30221,7 +30221,7 @@
         <v>537</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -30230,7 +30230,7 @@
         <v>44</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -30239,7 +30239,7 @@
         <v>44</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139">
         <v>0</v>
@@ -30257,7 +30257,7 @@
         <v>40</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139">
         <v>0</v>
@@ -30275,7 +30275,7 @@
         <v>40</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X139">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>539</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -30298,7 +30298,7 @@
         <v>540</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -30307,7 +30307,7 @@
         <v>481</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -30316,7 +30316,7 @@
         <v>481</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140">
         <v>0</v>
@@ -30334,7 +30334,7 @@
         <v>28</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R140">
         <v>0</v>
@@ -30352,7 +30352,7 @@
         <v>28</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X140">
         <v>0</v>
@@ -30366,7 +30366,7 @@
         <v>543</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -30378,13 +30378,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="s">
         <v>50</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -30393,7 +30393,7 @@
         <v>50</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>40</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>40</v>
       </c>
       <c r="W141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X141">
         <v>0</v>
@@ -30443,7 +30443,7 @@
         <v>545</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -30452,7 +30452,7 @@
         <v>142</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -30461,7 +30461,7 @@
         <v>54</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -30470,7 +30470,7 @@
         <v>54</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -30488,7 +30488,7 @@
         <v>40</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R142">
         <v>0</v>
@@ -30506,7 +30506,7 @@
         <v>40</v>
       </c>
       <c r="W142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X142">
         <v>0</v>
@@ -30597,7 +30597,7 @@
         <v>550</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -30609,13 +30609,13 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="s">
         <v>386</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>551</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>552</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R144">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>40</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X144">
         <v>0</v>
@@ -30674,7 +30674,7 @@
         <v>554</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -30683,7 +30683,7 @@
         <v>555</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -30692,7 +30692,7 @@
         <v>294</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -30701,7 +30701,7 @@
         <v>556</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145">
         <v>0</v>
@@ -30722,7 +30722,7 @@
         <v>0</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S145" t="s">
         <v>28</v>
@@ -30737,7 +30737,7 @@
         <v>28</v>
       </c>
       <c r="W145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X145">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>559</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>560</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -30769,7 +30769,7 @@
         <v>38</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -30778,7 +30778,7 @@
         <v>38</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146">
         <v>0</v>
@@ -30796,7 +30796,7 @@
         <v>562</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R146">
         <v>0</v>
@@ -30814,7 +30814,7 @@
         <v>40</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X146">
         <v>0</v>
@@ -30828,7 +30828,7 @@
         <v>565</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -30837,7 +30837,7 @@
         <v>566</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -30846,7 +30846,7 @@
         <v>333</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -30855,7 +30855,7 @@
         <v>333</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147">
         <v>0</v>
@@ -30873,7 +30873,7 @@
         <v>40</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R147">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>40</v>
       </c>
       <c r="W147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X147">
         <v>0</v>
@@ -30905,7 +30905,7 @@
         <v>570</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -30914,7 +30914,7 @@
         <v>571</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -30923,7 +30923,7 @@
         <v>572</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -30932,7 +30932,7 @@
         <v>572</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148">
         <v>0</v>
@@ -30950,7 +30950,7 @@
         <v>40</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R148">
         <v>0</v>
@@ -30968,7 +30968,7 @@
         <v>40</v>
       </c>
       <c r="W148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X148">
         <v>0</v>
@@ -30982,7 +30982,7 @@
         <v>575</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -30991,7 +30991,7 @@
         <v>576</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -31000,7 +31000,7 @@
         <v>229</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -31009,7 +31009,7 @@
         <v>229</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149">
         <v>0</v>
@@ -31027,7 +31027,7 @@
         <v>40</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R149">
         <v>0</v>
@@ -31045,7 +31045,7 @@
         <v>40</v>
       </c>
       <c r="W149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X149">
         <v>0</v>
@@ -31059,7 +31059,7 @@
         <v>578</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -31068,7 +31068,7 @@
         <v>142</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -31077,7 +31077,7 @@
         <v>579</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -31086,7 +31086,7 @@
         <v>580</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150">
         <v>0</v>
@@ -31104,7 +31104,7 @@
         <v>40</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R150">
         <v>0</v>
@@ -31122,7 +31122,7 @@
         <v>40</v>
       </c>
       <c r="W150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X150">
         <v>0</v>
@@ -31136,7 +31136,7 @@
         <v>582</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -31148,7 +31148,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="s">
         <v>28</v>
@@ -31181,7 +31181,7 @@
         <v>40</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R151">
         <v>0</v>
@@ -31202,7 +31202,7 @@
         <v>0</v>
       </c>
       <c r="X151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y151" t="s">
         <v>583</v>
@@ -31213,7 +31213,7 @@
         <v>584</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -31222,7 +31222,7 @@
         <v>222</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -31231,7 +31231,7 @@
         <v>133</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -31240,7 +31240,7 @@
         <v>133</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152">
         <v>0</v>
@@ -31258,7 +31258,7 @@
         <v>40</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R152">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>40</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X152">
         <v>0</v>
@@ -31290,7 +31290,7 @@
         <v>587</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -31302,13 +31302,13 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="s">
         <v>229</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -31317,7 +31317,7 @@
         <v>229</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153">
         <v>0</v>
@@ -31367,7 +31367,7 @@
         <v>589</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -31376,7 +31376,7 @@
         <v>590</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -31385,7 +31385,7 @@
         <v>180</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -31394,7 +31394,7 @@
         <v>580</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154">
         <v>0</v>
@@ -31415,7 +31415,7 @@
         <v>0</v>
       </c>
       <c r="R154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S154" t="s">
         <v>28</v>
@@ -31430,7 +31430,7 @@
         <v>28</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X154">
         <v>0</v>
@@ -31444,7 +31444,7 @@
         <v>594</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -31453,7 +31453,7 @@
         <v>595</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -31462,7 +31462,7 @@
         <v>111</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -31471,7 +31471,7 @@
         <v>111</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L155">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>597</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -31530,7 +31530,7 @@
         <v>598</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -31539,7 +31539,7 @@
         <v>599</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -31548,7 +31548,7 @@
         <v>599</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156">
         <v>0</v>
@@ -31566,7 +31566,7 @@
         <v>28</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R156">
         <v>0</v>
@@ -31584,7 +31584,7 @@
         <v>28</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X156">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>601</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -31610,13 +31610,13 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="s">
         <v>90</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -31625,7 +31625,7 @@
         <v>90</v>
       </c>
       <c r="K157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L157">
         <v>0</v>
@@ -31643,7 +31643,7 @@
         <v>28</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R157">
         <v>0</v>
@@ -31661,7 +31661,7 @@
         <v>28</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X157">
         <v>0</v>
@@ -31720,7 +31720,7 @@
         <v>28</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R158">
         <v>0</v>
@@ -31738,7 +31738,7 @@
         <v>28</v>
       </c>
       <c r="W158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X158">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>608</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -31764,13 +31764,13 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="s">
         <v>133</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -31779,7 +31779,7 @@
         <v>133</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159">
         <v>0</v>
@@ -31797,7 +31797,7 @@
         <v>40</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R159">
         <v>0</v>
@@ -31815,7 +31815,7 @@
         <v>40</v>
       </c>
       <c r="W159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X159">
         <v>0</v>
@@ -31829,7 +31829,7 @@
         <v>610</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="s">
         <v>163</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -31856,7 +31856,7 @@
         <v>163</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L160">
         <v>0</v>
@@ -31874,7 +31874,7 @@
         <v>28</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R160">
         <v>0</v>
@@ -31895,7 +31895,7 @@
         <v>0</v>
       </c>
       <c r="X160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y160" t="s">
         <v>611</v>
@@ -31983,7 +31983,7 @@
         <v>616</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>142</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -32001,7 +32001,7 @@
         <v>184</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -32010,7 +32010,7 @@
         <v>184</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162">
         <v>0</v>
@@ -32028,7 +32028,7 @@
         <v>40</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R162">
         <v>0</v>
@@ -32046,7 +32046,7 @@
         <v>40</v>
       </c>
       <c r="W162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X162">
         <v>0</v>
@@ -32060,7 +32060,7 @@
         <v>618</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="s">
         <v>76</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>76</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L163">
         <v>0</v>
@@ -32137,7 +32137,7 @@
         <v>621</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -32146,7 +32146,7 @@
         <v>622</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -32155,7 +32155,7 @@
         <v>83</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -32164,7 +32164,7 @@
         <v>83</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164">
         <v>0</v>
@@ -32182,7 +32182,7 @@
         <v>40</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R164">
         <v>0</v>
@@ -32200,7 +32200,7 @@
         <v>40</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X164">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>40</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R165">
         <v>0</v>
@@ -32277,7 +32277,7 @@
         <v>40</v>
       </c>
       <c r="W165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X165">
         <v>0</v>
@@ -32291,7 +32291,7 @@
         <v>628</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -32300,7 +32300,7 @@
         <v>629</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>630</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>481</v>
       </c>
       <c r="K166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L166">
         <v>0</v>
@@ -32336,7 +32336,7 @@
         <v>28</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R166">
         <v>0</v>
@@ -32354,7 +32354,7 @@
         <v>28</v>
       </c>
       <c r="W166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X166">
         <v>0</v>
@@ -32368,7 +32368,7 @@
         <v>634</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -32377,7 +32377,7 @@
         <v>635</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -32386,7 +32386,7 @@
         <v>151</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -32395,7 +32395,7 @@
         <v>151</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167">
         <v>0</v>
@@ -32413,7 +32413,7 @@
         <v>28</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R167">
         <v>0</v>
@@ -32431,7 +32431,7 @@
         <v>28</v>
       </c>
       <c r="W167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X167">
         <v>0</v>
@@ -32445,7 +32445,7 @@
         <v>638</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -32454,7 +32454,7 @@
         <v>639</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>640</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>481</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168">
         <v>0</v>
@@ -32490,7 +32490,7 @@
         <v>40</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R168">
         <v>0</v>
@@ -32508,7 +32508,7 @@
         <v>40</v>
       </c>
       <c r="W168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X168">
         <v>0</v>
@@ -32522,7 +32522,7 @@
         <v>642</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -32531,7 +32531,7 @@
         <v>643</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>459</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>644</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169">
         <v>0</v>
@@ -32567,7 +32567,7 @@
         <v>28</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R169">
         <v>0</v>
@@ -32585,7 +32585,7 @@
         <v>28</v>
       </c>
       <c r="W169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X169">
         <v>0</v>
@@ -32599,7 +32599,7 @@
         <v>647</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -32611,13 +32611,13 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="s">
         <v>229</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -32626,7 +32626,7 @@
         <v>229</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170">
         <v>0</v>
@@ -32644,7 +32644,7 @@
         <v>40</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R170">
         <v>0</v>
@@ -32662,7 +32662,7 @@
         <v>40</v>
       </c>
       <c r="W170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X170">
         <v>0</v>
@@ -32676,7 +32676,7 @@
         <v>649</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -32688,13 +32688,13 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" t="s">
         <v>111</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>111</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L171">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>40</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R171">
         <v>0</v>
@@ -32739,7 +32739,7 @@
         <v>40</v>
       </c>
       <c r="W171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X171">
         <v>0</v>
@@ -32771,7 +32771,7 @@
         <v>68</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>0</v>
       </c>
       <c r="L172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M172" t="s">
         <v>28</v>
@@ -32830,7 +32830,7 @@
         <v>654</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -32839,7 +32839,7 @@
         <v>655</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -32848,7 +32848,7 @@
         <v>27</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -32857,7 +32857,7 @@
         <v>27</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173">
         <v>0</v>
@@ -32875,7 +32875,7 @@
         <v>40</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R173">
         <v>0</v>
@@ -32893,7 +32893,7 @@
         <v>40</v>
       </c>
       <c r="W173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X173">
         <v>0</v>
@@ -32952,7 +32952,7 @@
         <v>28</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R174">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>28</v>
       </c>
       <c r="W174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X174">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>34</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R175">
         <v>0</v>
@@ -33047,7 +33047,7 @@
         <v>28</v>
       </c>
       <c r="W175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X175">
         <v>0</v>
@@ -33061,7 +33061,7 @@
         <v>665</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -33070,7 +33070,7 @@
         <v>666</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -33079,7 +33079,7 @@
         <v>333</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -33088,7 +33088,7 @@
         <v>72</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -33138,7 +33138,7 @@
         <v>668</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -33147,7 +33147,7 @@
         <v>669</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -33156,7 +33156,7 @@
         <v>670</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -33168,7 +33168,7 @@
         <v>0</v>
       </c>
       <c r="L177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M177" t="s">
         <v>28</v>
@@ -33183,7 +33183,7 @@
         <v>40</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R177">
         <v>0</v>
@@ -33201,7 +33201,7 @@
         <v>40</v>
       </c>
       <c r="W177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X177">
         <v>0</v>
@@ -33215,7 +33215,7 @@
         <v>672</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -33224,7 +33224,7 @@
         <v>673</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -33233,7 +33233,7 @@
         <v>229</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -33242,7 +33242,7 @@
         <v>229</v>
       </c>
       <c r="K178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L178">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>40</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R178">
         <v>0</v>
@@ -33278,7 +33278,7 @@
         <v>40</v>
       </c>
       <c r="W178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X178">
         <v>0</v>
@@ -33292,7 +33292,7 @@
         <v>675</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -33301,7 +33301,7 @@
         <v>676</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -33310,7 +33310,7 @@
         <v>133</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -33319,7 +33319,7 @@
         <v>133</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L179">
         <v>0</v>
@@ -33337,7 +33337,7 @@
         <v>677</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R179">
         <v>0</v>
@@ -33355,7 +33355,7 @@
         <v>40</v>
       </c>
       <c r="W179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X179">
         <v>0</v>
@@ -33369,7 +33369,7 @@
         <v>679</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -33381,13 +33381,13 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="s">
         <v>133</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -33396,7 +33396,7 @@
         <v>133</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>40</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R180">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>40</v>
       </c>
       <c r="W180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X180">
         <v>0</v>
@@ -33446,7 +33446,7 @@
         <v>681</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -33455,7 +33455,7 @@
         <v>682</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -33464,7 +33464,7 @@
         <v>481</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -33473,7 +33473,7 @@
         <v>481</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L181">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>28</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R181">
         <v>0</v>
@@ -33509,7 +33509,7 @@
         <v>28</v>
       </c>
       <c r="W181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X181">
         <v>0</v>
@@ -33523,7 +33523,7 @@
         <v>684</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -33532,7 +33532,7 @@
         <v>685</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -33568,7 +33568,7 @@
         <v>40</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R182">
         <v>0</v>
@@ -33586,7 +33586,7 @@
         <v>40</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X182">
         <v>0</v>
@@ -33600,7 +33600,7 @@
         <v>687</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -33612,13 +33612,13 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="s">
         <v>199</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -33627,7 +33627,7 @@
         <v>146</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183">
         <v>0</v>
@@ -33645,7 +33645,7 @@
         <v>40</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R183">
         <v>0</v>
@@ -33663,7 +33663,7 @@
         <v>40</v>
       </c>
       <c r="W183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X183">
         <v>0</v>
@@ -33722,7 +33722,7 @@
         <v>40</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R184">
         <v>0</v>
@@ -33740,7 +33740,7 @@
         <v>40</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X184">
         <v>0</v>
@@ -33754,7 +33754,7 @@
         <v>695</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -33766,13 +33766,13 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="s">
         <v>696</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -33781,7 +33781,7 @@
         <v>38</v>
       </c>
       <c r="K185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L185">
         <v>0</v>
@@ -33831,7 +33831,7 @@
         <v>698</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -33840,7 +33840,7 @@
         <v>699</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -33849,7 +33849,7 @@
         <v>294</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -33858,7 +33858,7 @@
         <v>294</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186">
         <v>0</v>
@@ -33876,7 +33876,7 @@
         <v>28</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R186">
         <v>0</v>
@@ -33894,7 +33894,7 @@
         <v>28</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X186">
         <v>0</v>
@@ -33908,7 +33908,7 @@
         <v>702</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -33917,7 +33917,7 @@
         <v>703</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -33926,7 +33926,7 @@
         <v>352</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -33935,7 +33935,7 @@
         <v>352</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -33953,7 +33953,7 @@
         <v>677</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R187">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>40</v>
       </c>
       <c r="W187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X187">
         <v>0</v>
@@ -33985,7 +33985,7 @@
         <v>705</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -33997,13 +33997,13 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="s">
         <v>412</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -34012,7 +34012,7 @@
         <v>369</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
         <v>0</v>
@@ -34030,7 +34030,7 @@
         <v>275</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R188">
         <v>0</v>
@@ -34048,7 +34048,7 @@
         <v>28</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X188">
         <v>0</v>
@@ -34062,7 +34062,7 @@
         <v>707</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -34071,7 +34071,7 @@
         <v>142</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -34139,7 +34139,7 @@
         <v>710</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -34148,7 +34148,7 @@
         <v>711</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -34157,7 +34157,7 @@
         <v>459</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -34166,7 +34166,7 @@
         <v>38</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190">
         <v>0</v>
@@ -34184,7 +34184,7 @@
         <v>40</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R190">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>40</v>
       </c>
       <c r="W190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X190">
         <v>0</v>
@@ -34216,7 +34216,7 @@
         <v>713</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -34225,7 +34225,7 @@
         <v>714</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -34234,7 +34234,7 @@
         <v>54</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -34243,7 +34243,7 @@
         <v>54</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191">
         <v>0</v>
@@ -34261,7 +34261,7 @@
         <v>40</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R191">
         <v>0</v>
@@ -34279,7 +34279,7 @@
         <v>40</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X191">
         <v>0</v>
@@ -34293,7 +34293,7 @@
         <v>716</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -34302,7 +34302,7 @@
         <v>717</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -34311,7 +34311,7 @@
         <v>184</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -34320,7 +34320,7 @@
         <v>184</v>
       </c>
       <c r="K192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192">
         <v>0</v>
@@ -34338,7 +34338,7 @@
         <v>40</v>
       </c>
       <c r="Q192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R192">
         <v>0</v>
@@ -34356,7 +34356,7 @@
         <v>40</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X192">
         <v>0</v>
@@ -34370,7 +34370,7 @@
         <v>720</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -34382,13 +34382,13 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" t="s">
         <v>44</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -34397,7 +34397,7 @@
         <v>44</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193">
         <v>0</v>
@@ -34415,7 +34415,7 @@
         <v>40</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R193">
         <v>0</v>
@@ -34433,7 +34433,7 @@
         <v>40</v>
       </c>
       <c r="W193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X193">
         <v>0</v>
@@ -34524,7 +34524,7 @@
         <v>725</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -34533,7 +34533,7 @@
         <v>726</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -34542,7 +34542,7 @@
         <v>50</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -34551,7 +34551,7 @@
         <v>50</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195">
         <v>0</v>
@@ -34569,7 +34569,7 @@
         <v>28</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R195">
         <v>0</v>
@@ -34587,7 +34587,7 @@
         <v>28</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X195">
         <v>0</v>
@@ -34601,7 +34601,7 @@
         <v>728</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -34610,7 +34610,7 @@
         <v>126</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -34619,7 +34619,7 @@
         <v>68</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -34631,7 +34631,7 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196" t="s">
         <v>28</v>
@@ -34678,7 +34678,7 @@
         <v>730</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -34687,7 +34687,7 @@
         <v>731</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>386</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>386</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L197">
         <v>0</v>
@@ -34723,7 +34723,7 @@
         <v>40</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R197">
         <v>0</v>
@@ -34741,7 +34741,7 @@
         <v>40</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X197">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>733</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -34764,7 +34764,7 @@
         <v>734</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -34773,7 +34773,7 @@
         <v>111</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -34782,7 +34782,7 @@
         <v>111</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198">
         <v>0</v>
@@ -34800,7 +34800,7 @@
         <v>40</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R198">
         <v>0</v>
@@ -34818,7 +34818,7 @@
         <v>40</v>
       </c>
       <c r="W198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X198">
         <v>0</v>
@@ -34832,7 +34832,7 @@
         <v>736</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -34841,7 +34841,7 @@
         <v>737</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -34850,7 +34850,7 @@
         <v>630</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>630</v>
       </c>
       <c r="K199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>40</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R199">
         <v>0</v>
@@ -34895,7 +34895,7 @@
         <v>40</v>
       </c>
       <c r="W199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X199">
         <v>0</v>
@@ -34909,7 +34909,7 @@
         <v>739</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -34921,13 +34921,13 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="s">
         <v>229</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>229</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>40</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R200">
         <v>0</v>
@@ -34972,7 +34972,7 @@
         <v>40</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X200">
         <v>0</v>
@@ -34986,7 +34986,7 @@
         <v>741</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -34995,7 +34995,7 @@
         <v>742</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -35004,7 +35004,7 @@
         <v>133</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -35013,7 +35013,7 @@
         <v>133</v>
       </c>
       <c r="K201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L201">
         <v>0</v>
@@ -35031,7 +35031,7 @@
         <v>238</v>
       </c>
       <c r="Q201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R201">
         <v>0</v>
@@ -35049,7 +35049,7 @@
         <v>238</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X201">
         <v>0</v>
@@ -35063,7 +35063,7 @@
         <v>745</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -35075,7 +35075,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" t="s">
         <v>28</v>
@@ -35108,7 +35108,7 @@
         <v>28</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R202">
         <v>0</v>
@@ -35126,7 +35126,7 @@
         <v>28</v>
       </c>
       <c r="W202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X202">
         <v>0</v>
@@ -35140,7 +35140,7 @@
         <v>749</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -35149,7 +35149,7 @@
         <v>750</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -35158,7 +35158,7 @@
         <v>294</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>294</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>28</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R203">
         <v>0</v>
@@ -35203,7 +35203,7 @@
         <v>28</v>
       </c>
       <c r="W203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X203">
         <v>0</v>
@@ -35217,7 +35217,7 @@
         <v>752</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -35229,13 +35229,13 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" t="s">
         <v>290</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -35244,7 +35244,7 @@
         <v>27</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204">
         <v>0</v>
@@ -35262,7 +35262,7 @@
         <v>40</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R204">
         <v>0</v>
@@ -35283,7 +35283,7 @@
         <v>0</v>
       </c>
       <c r="X204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y204" t="s">
         <v>753</v>
@@ -35294,7 +35294,7 @@
         <v>754</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -35303,7 +35303,7 @@
         <v>755</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -35312,7 +35312,7 @@
         <v>111</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -35321,7 +35321,7 @@
         <v>111</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -35339,7 +35339,7 @@
         <v>40</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R205">
         <v>0</v>
@@ -35360,7 +35360,7 @@
         <v>0</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y205" t="s">
         <v>758</v>
@@ -35389,7 +35389,7 @@
         <v>163</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -35398,7 +35398,7 @@
         <v>630</v>
       </c>
       <c r="K206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>40</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R206">
         <v>0</v>
@@ -35434,7 +35434,7 @@
         <v>40</v>
       </c>
       <c r="W206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X206">
         <v>0</v>
@@ -35448,7 +35448,7 @@
         <v>762</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -35460,13 +35460,13 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" t="s">
         <v>135</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -35475,7 +35475,7 @@
         <v>27</v>
       </c>
       <c r="K207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207">
         <v>0</v>
@@ -35525,7 +35525,7 @@
         <v>764</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -35534,7 +35534,7 @@
         <v>717</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -35543,7 +35543,7 @@
         <v>184</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -35552,7 +35552,7 @@
         <v>184</v>
       </c>
       <c r="K208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>40</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R208">
         <v>0</v>
@@ -35588,7 +35588,7 @@
         <v>40</v>
       </c>
       <c r="W208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X208">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>40</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R209">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>40</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X209">
         <v>0</v>
@@ -35679,7 +35679,7 @@
         <v>769</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -35688,7 +35688,7 @@
         <v>770</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -35697,7 +35697,7 @@
         <v>44</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -35706,7 +35706,7 @@
         <v>44</v>
       </c>
       <c r="K210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L210">
         <v>0</v>
@@ -35724,7 +35724,7 @@
         <v>40</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R210">
         <v>0</v>
@@ -35742,7 +35742,7 @@
         <v>40</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X210">
         <v>0</v>
@@ -35756,7 +35756,7 @@
         <v>772</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -35765,7 +35765,7 @@
         <v>773</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -35774,7 +35774,7 @@
         <v>290</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -35783,7 +35783,7 @@
         <v>290</v>
       </c>
       <c r="K211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -35801,7 +35801,7 @@
         <v>40</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R211">
         <v>0</v>
@@ -35819,7 +35819,7 @@
         <v>40</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X211">
         <v>0</v>
@@ -35833,7 +35833,7 @@
         <v>775</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -35842,7 +35842,7 @@
         <v>776</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -35851,7 +35851,7 @@
         <v>333</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -35860,7 +35860,7 @@
         <v>777</v>
       </c>
       <c r="K212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212">
         <v>0</v>
@@ -35910,7 +35910,7 @@
         <v>779</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -35919,7 +35919,7 @@
         <v>780</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -35928,7 +35928,7 @@
         <v>50</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -35937,7 +35937,7 @@
         <v>54</v>
       </c>
       <c r="K213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L213">
         <v>0</v>
@@ -35955,7 +35955,7 @@
         <v>40</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R213">
         <v>0</v>
@@ -35973,7 +35973,7 @@
         <v>40</v>
       </c>
       <c r="W213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X213">
         <v>0</v>
@@ -35987,7 +35987,7 @@
         <v>782</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -35996,7 +35996,7 @@
         <v>783</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -36005,7 +36005,7 @@
         <v>199</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -36014,7 +36014,7 @@
         <v>199</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214">
         <v>0</v>
@@ -36032,7 +36032,7 @@
         <v>28</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R214">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>28</v>
       </c>
       <c r="W214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X214">
         <v>0</v>
@@ -36064,7 +36064,7 @@
         <v>787</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -36076,13 +36076,13 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" t="s">
         <v>146</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -36091,7 +36091,7 @@
         <v>146</v>
       </c>
       <c r="K215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>790</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -36150,7 +36150,7 @@
         <v>791</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -36159,7 +36159,7 @@
         <v>459</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -36168,7 +36168,7 @@
         <v>459</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L216">
         <v>0</v>
@@ -36186,7 +36186,7 @@
         <v>28</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R216">
         <v>0</v>
@@ -36207,7 +36207,7 @@
         <v>0</v>
       </c>
       <c r="X216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y216" t="s">
         <v>793</v>
@@ -36218,7 +36218,7 @@
         <v>794</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -36230,13 +36230,13 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" t="s">
         <v>796</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -36248,7 +36248,7 @@
         <v>0</v>
       </c>
       <c r="L217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M217" t="s">
         <v>28</v>
@@ -36263,7 +36263,7 @@
         <v>40</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R217">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>40</v>
       </c>
       <c r="W217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X217">
         <v>0</v>
@@ -36295,7 +36295,7 @@
         <v>798</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -36304,7 +36304,7 @@
         <v>799</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -36313,7 +36313,7 @@
         <v>111</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -36322,7 +36322,7 @@
         <v>111</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L218">
         <v>0</v>
@@ -36340,7 +36340,7 @@
         <v>40</v>
       </c>
       <c r="Q218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R218">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>40</v>
       </c>
       <c r="W218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X218">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>801</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>802</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -36390,7 +36390,7 @@
         <v>106</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -36399,7 +36399,7 @@
         <v>106</v>
       </c>
       <c r="K219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L219">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>804</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>805</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -36467,7 +36467,7 @@
         <v>151</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -36476,7 +36476,7 @@
         <v>151</v>
       </c>
       <c r="K220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -36494,7 +36494,7 @@
         <v>165</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R220">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y220" t="s">
         <v>807</v>
@@ -36571,7 +36571,7 @@
         <v>40</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R221">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>40</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X221">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>810</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>811</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -36621,7 +36621,7 @@
         <v>50</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -36630,7 +36630,7 @@
         <v>50</v>
       </c>
       <c r="K222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L222">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>813</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>814</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -36698,7 +36698,7 @@
         <v>163</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -36707,7 +36707,7 @@
         <v>163</v>
       </c>
       <c r="K223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -36757,7 +36757,7 @@
         <v>816</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -36769,13 +36769,13 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" t="s">
         <v>38</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -36784,7 +36784,7 @@
         <v>38</v>
       </c>
       <c r="K224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L224">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>818</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>819</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>100</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -36861,7 +36861,7 @@
         <v>100</v>
       </c>
       <c r="K225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L225">
         <v>0</v>
@@ -36879,7 +36879,7 @@
         <v>28</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R225">
         <v>0</v>
@@ -36897,7 +36897,7 @@
         <v>28</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X225">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>822</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>823</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>133</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -36938,7 +36938,7 @@
         <v>133</v>
       </c>
       <c r="K226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L226">
         <v>0</v>
@@ -36956,7 +36956,7 @@
         <v>165</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R226">
         <v>0</v>
@@ -36977,7 +36977,7 @@
         <v>0</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y226" t="s">
         <v>826</v>
@@ -36988,7 +36988,7 @@
         <v>827</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -37000,13 +37000,13 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" t="s">
         <v>294</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -37015,7 +37015,7 @@
         <v>294</v>
       </c>
       <c r="K227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -37033,7 +37033,7 @@
         <v>165</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R227">
         <v>0</v>
@@ -37051,7 +37051,7 @@
         <v>165</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X227">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>829</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>830</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>294</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>294</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L228">
         <v>0</v>
@@ -37110,7 +37110,7 @@
         <v>28</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R228">
         <v>0</v>
@@ -37128,7 +37128,7 @@
         <v>28</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X228">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>834</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" t="s">
         <v>146</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>146</v>
       </c>
       <c r="K229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L229">
         <v>0</v>
@@ -37219,7 +37219,7 @@
         <v>838</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -37228,7 +37228,7 @@
         <v>839</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -37264,7 +37264,7 @@
         <v>28</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R230">
         <v>0</v>
@@ -37282,7 +37282,7 @@
         <v>28</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X230">
         <v>0</v>
@@ -37296,7 +37296,7 @@
         <v>841</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>842</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>133</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>133</v>
       </c>
       <c r="K231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L231">
         <v>0</v>
@@ -37341,7 +37341,7 @@
         <v>40</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R231">
         <v>0</v>
@@ -37362,7 +37362,7 @@
         <v>0</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y231" t="s">
         <v>843</v>
@@ -37373,7 +37373,7 @@
         <v>844</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>537</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>184</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>184</v>
       </c>
       <c r="K232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L232">
         <v>0</v>
@@ -37418,7 +37418,7 @@
         <v>40</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R232">
         <v>0</v>
@@ -37436,7 +37436,7 @@
         <v>40</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X232">
         <v>0</v>
@@ -37450,7 +37450,7 @@
         <v>847</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -37462,13 +37462,13 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233" t="s">
         <v>180</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -37477,7 +37477,7 @@
         <v>180</v>
       </c>
       <c r="K233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -37527,7 +37527,7 @@
         <v>849</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -37536,7 +37536,7 @@
         <v>850</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>116</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>116</v>
       </c>
       <c r="K234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234">
         <v>0</v>
@@ -37572,7 +37572,7 @@
         <v>28</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R234">
         <v>0</v>
@@ -37590,7 +37590,7 @@
         <v>28</v>
       </c>
       <c r="W234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X234">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>852</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -37613,7 +37613,7 @@
         <v>853</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>44</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>44</v>
       </c>
       <c r="K235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -37649,7 +37649,7 @@
         <v>40</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R235">
         <v>0</v>
@@ -37667,7 +37667,7 @@
         <v>28</v>
       </c>
       <c r="W235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X235">
         <v>0</v>
@@ -37681,7 +37681,7 @@
         <v>856</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -37690,7 +37690,7 @@
         <v>673</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -37699,7 +37699,7 @@
         <v>294</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -37708,7 +37708,7 @@
         <v>136</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -37726,7 +37726,7 @@
         <v>40</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R236">
         <v>0</v>
@@ -37744,7 +37744,7 @@
         <v>40</v>
       </c>
       <c r="W236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X236">
         <v>0</v>
@@ -37758,7 +37758,7 @@
         <v>858</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -37767,7 +37767,7 @@
         <v>859</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>38</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>38</v>
       </c>
       <c r="K237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>28</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R237">
         <v>0</v>
@@ -37821,7 +37821,7 @@
         <v>28</v>
       </c>
       <c r="W237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X237">
         <v>0</v>
@@ -37835,7 +37835,7 @@
         <v>863</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -37847,13 +37847,13 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" t="s">
         <v>44</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>44</v>
       </c>
       <c r="K238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L238">
         <v>0</v>
@@ -37912,7 +37912,7 @@
         <v>865</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -37921,7 +37921,7 @@
         <v>866</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -37930,7 +37930,7 @@
         <v>412</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -37939,7 +37939,7 @@
         <v>412</v>
       </c>
       <c r="K239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -37957,7 +37957,7 @@
         <v>40</v>
       </c>
       <c r="Q239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R239">
         <v>0</v>
@@ -37975,7 +37975,7 @@
         <v>40</v>
       </c>
       <c r="W239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X239">
         <v>0</v>
@@ -37989,7 +37989,7 @@
         <v>868</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -37998,7 +37998,7 @@
         <v>869</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -38007,7 +38007,7 @@
         <v>290</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>290</v>
       </c>
       <c r="K240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L240">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>40</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R240">
         <v>0</v>
@@ -38052,7 +38052,7 @@
         <v>40</v>
       </c>
       <c r="W240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X240">
         <v>0</v>
@@ -38066,7 +38066,7 @@
         <v>871</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -38078,13 +38078,13 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241" t="s">
         <v>121</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>121</v>
       </c>
       <c r="K241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>40</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R241">
         <v>0</v>
@@ -38129,7 +38129,7 @@
         <v>40</v>
       </c>
       <c r="W241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X241">
         <v>0</v>
@@ -38143,7 +38143,7 @@
         <v>873</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -38155,13 +38155,13 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242" t="s">
         <v>44</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -38170,7 +38170,7 @@
         <v>44</v>
       </c>
       <c r="K242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L242">
         <v>0</v>
@@ -38220,7 +38220,7 @@
         <v>875</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -38229,7 +38229,7 @@
         <v>876</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -38238,7 +38238,7 @@
         <v>352</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -38247,7 +38247,7 @@
         <v>352</v>
       </c>
       <c r="K243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L243">
         <v>0</v>
@@ -38265,7 +38265,7 @@
         <v>40</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R243">
         <v>0</v>
@@ -38283,7 +38283,7 @@
         <v>40</v>
       </c>
       <c r="W243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X243">
         <v>0</v>
@@ -38297,7 +38297,7 @@
         <v>879</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -38306,7 +38306,7 @@
         <v>880</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -38315,7 +38315,7 @@
         <v>106</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -38324,7 +38324,7 @@
         <v>106</v>
       </c>
       <c r="K244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L244">
         <v>0</v>
@@ -38374,7 +38374,7 @@
         <v>882</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -38386,13 +38386,13 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245" t="s">
         <v>459</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -38401,7 +38401,7 @@
         <v>459</v>
       </c>
       <c r="K245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L245">
         <v>0</v>
@@ -38451,7 +38451,7 @@
         <v>884</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -38463,13 +38463,13 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G246" t="s">
         <v>68</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246">
         <v>0</v>
@@ -38478,7 +38478,7 @@
         <v>68</v>
       </c>
       <c r="K246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L246">
         <v>0</v>
@@ -38496,7 +38496,7 @@
         <v>40</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R246">
         <v>0</v>
@@ -38514,7 +38514,7 @@
         <v>40</v>
       </c>
       <c r="W246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X246">
         <v>0</v>
@@ -38528,7 +38528,7 @@
         <v>887</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -38537,7 +38537,7 @@
         <v>888</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -38605,7 +38605,7 @@
         <v>890</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -38617,13 +38617,13 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G248" t="s">
         <v>50</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -38632,7 +38632,7 @@
         <v>50</v>
       </c>
       <c r="K248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L248">
         <v>0</v>
@@ -38682,7 +38682,7 @@
         <v>892</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -38691,7 +38691,7 @@
         <v>893</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -38700,7 +38700,7 @@
         <v>894</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -38709,7 +38709,7 @@
         <v>72</v>
       </c>
       <c r="K249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -38727,7 +38727,7 @@
         <v>897</v>
       </c>
       <c r="Q249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R249">
         <v>0</v>
@@ -38745,7 +38745,7 @@
         <v>28</v>
       </c>
       <c r="W249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X249">
         <v>0</v>
@@ -38759,7 +38759,7 @@
         <v>899</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -38768,7 +38768,7 @@
         <v>900</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -38777,7 +38777,7 @@
         <v>333</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -38786,7 +38786,7 @@
         <v>901</v>
       </c>
       <c r="K250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L250">
         <v>0</v>
@@ -38804,7 +38804,7 @@
         <v>40</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R250">
         <v>0</v>
@@ -38822,7 +38822,7 @@
         <v>28</v>
       </c>
       <c r="W250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X250">
         <v>0</v>
@@ -38913,7 +38913,7 @@
         <v>905</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -38922,7 +38922,7 @@
         <v>906</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -38931,7 +38931,7 @@
         <v>111</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -38940,7 +38940,7 @@
         <v>111</v>
       </c>
       <c r="K252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L252">
         <v>0</v>
@@ -38958,7 +38958,7 @@
         <v>677</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
         <v>0</v>
@@ -38976,7 +38976,7 @@
         <v>28</v>
       </c>
       <c r="W252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X252">
         <v>0</v>
@@ -38990,7 +38990,7 @@
         <v>908</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -38999,7 +38999,7 @@
         <v>909</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -39038,7 +39038,7 @@
         <v>0</v>
       </c>
       <c r="R253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S253" t="s">
         <v>28</v>
@@ -39053,7 +39053,7 @@
         <v>911</v>
       </c>
       <c r="W253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X253">
         <v>0</v>

--- a/whowherewhen/whowhenwhere_test_result_ekonomi_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_ekonomi_evaluated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7685A77E-4B9D-4CC2-920E-727C5C8CCBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B04A9A-8839-429D-9995-704E32A0EE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19575,8 +19575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28655,10 +28655,10 @@
         <v>238</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y118" t="s">
         <v>470</v>

--- a/whowherewhen/whowhenwhere_test_result_ekonomi_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_ekonomi_evaluated.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B04A9A-8839-429D-9995-704E32A0EE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5248441-42F1-4139-9E8E-B22F8E02F248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19575,8 +19586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="J93" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="V97" sqref="V97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21372,7 +21383,7 @@
         <v>135</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -27041,7 +27052,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y97" t="s">
         <v>397</v>
